--- a/Code/Results/Cases/Case_5_74/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_74/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.582515631607379</v>
+        <v>1.388317276603885</v>
       </c>
       <c r="C2">
-        <v>0.1259899154503898</v>
+        <v>0.04981286588697742</v>
       </c>
       <c r="D2">
-        <v>0.08782492186146751</v>
+        <v>0.1577979911730818</v>
       </c>
       <c r="E2">
-        <v>0.0294031263028911</v>
+        <v>0.07019828564043351</v>
       </c>
       <c r="F2">
-        <v>2.000460133616201</v>
+        <v>2.625751773257264</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.406973942409394</v>
+        <v>0.9305988667144902</v>
       </c>
       <c r="L2">
-        <v>0.1465615171930708</v>
+        <v>0.1963251175074916</v>
       </c>
       <c r="M2">
-        <v>0.3005186090016636</v>
+        <v>0.298867986704245</v>
       </c>
       <c r="N2">
-        <v>2.337806545705661</v>
+        <v>3.740235092271789</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.396077795426606</v>
+        <v>1.347845959518565</v>
       </c>
       <c r="C3">
-        <v>0.1108239979909484</v>
+        <v>0.04514965112339553</v>
       </c>
       <c r="D3">
-        <v>0.09001218557884005</v>
+        <v>0.1581448829324259</v>
       </c>
       <c r="E3">
-        <v>0.02894200582762174</v>
+        <v>0.07033141536888365</v>
       </c>
       <c r="F3">
-        <v>1.878174609943244</v>
+        <v>2.602581907047337</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.227313380912022</v>
+        <v>0.8883912467549351</v>
       </c>
       <c r="L3">
-        <v>0.1332700618513982</v>
+        <v>0.1940149243992977</v>
       </c>
       <c r="M3">
-        <v>0.2670112108059968</v>
+        <v>0.2919269069122592</v>
       </c>
       <c r="N3">
-        <v>2.334415887129424</v>
+        <v>3.7423052222113</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.283645903019902</v>
+        <v>1.323817732214849</v>
       </c>
       <c r="C4">
-        <v>0.1015855756586461</v>
+        <v>0.04226370416380121</v>
       </c>
       <c r="D4">
-        <v>0.09136833851554016</v>
+        <v>0.1583614021338491</v>
       </c>
       <c r="E4">
-        <v>0.02868455369100076</v>
+        <v>0.07043031795491217</v>
       </c>
       <c r="F4">
-        <v>1.80592126298987</v>
+        <v>2.589425679108842</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.118737071603562</v>
+        <v>0.8630588559736907</v>
       </c>
       <c r="L4">
-        <v>0.1253080548596373</v>
+        <v>0.1926930427625635</v>
       </c>
       <c r="M4">
-        <v>0.246834888161672</v>
+        <v>0.2878346556715989</v>
       </c>
       <c r="N4">
-        <v>2.334400764958943</v>
+        <v>3.744342814676344</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.23829157357622</v>
+        <v>1.314232525788867</v>
       </c>
       <c r="C5">
-        <v>0.09783508300373001</v>
+        <v>0.04108186791624746</v>
       </c>
       <c r="D5">
-        <v>0.09192444994575055</v>
+        <v>0.1584505233941647</v>
       </c>
       <c r="E5">
-        <v>0.02858587006135682</v>
+        <v>0.07047494563243806</v>
       </c>
       <c r="F5">
-        <v>1.777138025889357</v>
+        <v>2.584333303512111</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.074879054398735</v>
+        <v>0.852882165177931</v>
       </c>
       <c r="L5">
-        <v>0.1221095981208506</v>
+        <v>0.1921786667685197</v>
       </c>
       <c r="M5">
-        <v>0.2387034988223853</v>
+        <v>0.2862096803863317</v>
       </c>
       <c r="N5">
-        <v>2.334889957990057</v>
+        <v>3.745365747169942</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.230787039611556</v>
+        <v>1.312653380257615</v>
       </c>
       <c r="C6">
-        <v>0.09721305821838655</v>
+        <v>0.0408852729739948</v>
       </c>
       <c r="D6">
-        <v>0.09201700587059491</v>
+        <v>0.1584653755781034</v>
       </c>
       <c r="E6">
-        <v>0.02856985366530918</v>
+        <v>0.07048261745194839</v>
       </c>
       <c r="F6">
-        <v>1.77239705917215</v>
+        <v>2.583503953079287</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.067618516446458</v>
+        <v>0.8512011738118019</v>
       </c>
       <c r="L6">
-        <v>0.1215811731584466</v>
+        <v>0.1920947232103245</v>
       </c>
       <c r="M6">
-        <v>0.2373585015538247</v>
+        <v>0.2859424305853224</v>
       </c>
       <c r="N6">
-        <v>2.33500042659972</v>
+        <v>3.745547232352379</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.283032430381581</v>
+        <v>1.323687626740792</v>
       </c>
       <c r="C7">
-        <v>0.1015349429393382</v>
+        <v>0.04224778905032167</v>
       </c>
       <c r="D7">
-        <v>0.09137582417923173</v>
+        <v>0.1583626004583856</v>
       </c>
       <c r="E7">
-        <v>0.02868319787181406</v>
+        <v>0.07043090229925397</v>
       </c>
       <c r="F7">
-        <v>1.805530472578951</v>
+        <v>2.589355913093144</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.118144079334769</v>
+        <v>0.8629210167962924</v>
       </c>
       <c r="L7">
-        <v>0.1252647375774529</v>
+        <v>0.1926860072924796</v>
       </c>
       <c r="M7">
-        <v>0.2467248702884532</v>
+        <v>0.2878125679921411</v>
       </c>
       <c r="N7">
-        <v>2.334405387648644</v>
+        <v>3.744355830705871</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.517776379579885</v>
+        <v>1.37419225928474</v>
       </c>
       <c r="C8">
-        <v>0.1207427930089011</v>
+        <v>0.04820965574594993</v>
       </c>
       <c r="D8">
-        <v>0.08857645416527671</v>
+        <v>0.1579168683519878</v>
       </c>
       <c r="E8">
-        <v>0.02923866118737806</v>
+        <v>0.07024063242690026</v>
       </c>
       <c r="F8">
-        <v>1.957676695409617</v>
+        <v>2.617540552107741</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.344636180498782</v>
+        <v>0.9159244858467162</v>
       </c>
       <c r="L8">
-        <v>0.1419348785843582</v>
+        <v>0.1955085235183063</v>
       </c>
       <c r="M8">
-        <v>0.2888769860894413</v>
+        <v>0.2964395004088871</v>
       </c>
       <c r="N8">
-        <v>2.336193291325515</v>
+        <v>3.740789685325097</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.996809398059384</v>
+        <v>1.479757675600808</v>
       </c>
       <c r="C9">
-        <v>0.1592025069178646</v>
+        <v>0.05972461984394783</v>
       </c>
       <c r="D9">
-        <v>0.08318399659749076</v>
+        <v>0.1570706872282477</v>
       </c>
       <c r="E9">
-        <v>0.03054278464773219</v>
+        <v>0.0700033073951456</v>
       </c>
       <c r="F9">
-        <v>2.281005262655654</v>
+        <v>2.681316881054997</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.804964938014791</v>
+        <v>1.024507976927111</v>
       </c>
       <c r="L9">
-        <v>0.1763961917127688</v>
+        <v>0.2018097738820828</v>
       </c>
       <c r="M9">
-        <v>0.3751470244809454</v>
+        <v>0.3147038105791324</v>
       </c>
       <c r="N9">
-        <v>2.357291830173779</v>
+        <v>3.739887086963947</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.363979851060435</v>
+        <v>1.56131840834729</v>
       </c>
       <c r="C10">
-        <v>0.1882653075669225</v>
+        <v>0.06808343973087005</v>
       </c>
       <c r="D10">
-        <v>0.07927086259127858</v>
+        <v>0.1564658558218222</v>
       </c>
       <c r="E10">
-        <v>0.03164885059188194</v>
+        <v>0.06991127517287055</v>
       </c>
       <c r="F10">
-        <v>2.537612540457744</v>
+        <v>2.733388172271361</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.156710604323337</v>
+        <v>1.1071473135205</v>
       </c>
       <c r="L10">
-        <v>0.2030879641589678</v>
+        <v>0.2069072007137578</v>
       </c>
       <c r="M10">
-        <v>0.4414287278036113</v>
+        <v>0.3289473801535863</v>
       </c>
       <c r="N10">
-        <v>2.385339288966577</v>
+        <v>3.742951321020215</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.535270960656533</v>
+        <v>1.599297271945886</v>
       </c>
       <c r="C11">
-        <v>0.2017428612185341</v>
+        <v>0.07186548398262005</v>
       </c>
       <c r="D11">
-        <v>0.0774989589264381</v>
+        <v>0.1561943312605463</v>
       </c>
       <c r="E11">
-        <v>0.03218833605267335</v>
+        <v>0.06988719263793364</v>
       </c>
       <c r="F11">
-        <v>2.659441630401915</v>
+        <v>2.758215998717304</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.320584503067266</v>
+        <v>1.145371365710048</v>
       </c>
       <c r="L11">
-        <v>0.2156014935743542</v>
+        <v>0.2093279736353679</v>
       </c>
       <c r="M11">
-        <v>0.4723848205261447</v>
+        <v>0.3356071743520346</v>
       </c>
       <c r="N11">
-        <v>2.40127793056601</v>
+        <v>3.745158021733459</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.600835422195644</v>
+        <v>1.613805177091365</v>
       </c>
       <c r="C12">
-        <v>0.2068909574499713</v>
+        <v>0.07329480452794712</v>
       </c>
       <c r="D12">
-        <v>0.07682898297780927</v>
+        <v>0.1560920308510987</v>
       </c>
       <c r="E12">
-        <v>0.03239823545656151</v>
+        <v>0.06988062239082993</v>
       </c>
       <c r="F12">
-        <v>2.706396713088623</v>
+        <v>2.767782036644519</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.383279605704047</v>
+        <v>1.159936972332588</v>
       </c>
       <c r="L12">
-        <v>0.2204001371755453</v>
+        <v>0.2102593172544545</v>
       </c>
       <c r="M12">
-        <v>0.4842387599607605</v>
+        <v>0.3381550330237459</v>
       </c>
       <c r="N12">
-        <v>2.407813346442651</v>
+        <v>3.746110755368363</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.586682314200459</v>
+        <v>1.610675028672574</v>
       </c>
       <c r="C13">
-        <v>0.2057801176145517</v>
+        <v>0.07298710059343705</v>
       </c>
       <c r="D13">
-        <v>0.0769732323254475</v>
+        <v>0.1561140399431791</v>
       </c>
       <c r="E13">
-        <v>0.03235277393097391</v>
+        <v>0.06988192415656869</v>
       </c>
       <c r="F13">
-        <v>2.696246077975644</v>
+        <v>2.765714508011769</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.369747212499192</v>
+        <v>1.156795957580499</v>
       </c>
       <c r="L13">
-        <v>0.2193638799672897</v>
+        <v>0.2100580843192006</v>
       </c>
       <c r="M13">
-        <v>0.4816796811081616</v>
+        <v>0.3376051522638548</v>
       </c>
       <c r="N13">
-        <v>2.406382872487342</v>
+        <v>3.745900355197108</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.540650423150282</v>
+        <v>1.600488317540396</v>
       </c>
       <c r="C14">
-        <v>0.2021654615033697</v>
+        <v>0.07198313185689642</v>
       </c>
       <c r="D14">
-        <v>0.07744382044321352</v>
+        <v>0.156185904521787</v>
       </c>
       <c r="E14">
-        <v>0.03220548987777683</v>
+        <v>0.06988660105349709</v>
       </c>
       <c r="F14">
-        <v>2.663287660886979</v>
+        <v>2.758999708277514</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.325729134855095</v>
+        <v>1.146567861948768</v>
       </c>
       <c r="L14">
-        <v>0.2159950370714938</v>
+        <v>0.2094043022797081</v>
       </c>
       <c r="M14">
-        <v>0.4733573181462916</v>
+        <v>0.3358162683029917</v>
       </c>
       <c r="N14">
-        <v>2.401805326469258</v>
+        <v>3.745234055436697</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.51254849243719</v>
+        <v>1.594265092195258</v>
       </c>
       <c r="C15">
-        <v>0.1999574049875434</v>
+        <v>0.07136780224887218</v>
       </c>
       <c r="D15">
-        <v>0.07773219505337536</v>
+        <v>0.1562299913804948</v>
       </c>
       <c r="E15">
-        <v>0.03211601649843665</v>
+        <v>0.06988979754599711</v>
       </c>
       <c r="F15">
-        <v>2.643209374432445</v>
+        <v>2.754908102541776</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.298852734116679</v>
+        <v>1.140314714856657</v>
       </c>
       <c r="L15">
-        <v>0.2139395514489735</v>
+        <v>0.2090057494784361</v>
       </c>
       <c r="M15">
-        <v>0.4682772603180041</v>
+        <v>0.3347239035558758</v>
       </c>
       <c r="N15">
-        <v>2.399067876256254</v>
+        <v>3.744841184867681</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.352878614948168</v>
+        <v>1.55885404540652</v>
       </c>
       <c r="C16">
-        <v>0.1873903082303485</v>
+        <v>0.06783587003405955</v>
       </c>
       <c r="D16">
-        <v>0.07938681082185184</v>
+        <v>0.1564836733584025</v>
       </c>
       <c r="E16">
-        <v>0.03161435696337911</v>
+        <v>0.06991320618941721</v>
       </c>
       <c r="F16">
-        <v>2.529760615758121</v>
+        <v>2.731788587368897</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.146085787917883</v>
+        <v>1.104662000445103</v>
       </c>
       <c r="L16">
-        <v>0.2022782005575436</v>
+        <v>0.2067510478909185</v>
       </c>
       <c r="M16">
-        <v>0.439423179409907</v>
+        <v>0.3285157762293807</v>
       </c>
       <c r="N16">
-        <v>2.38436518211671</v>
+        <v>3.742823482351554</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.256077554271542</v>
+        <v>1.537355068878753</v>
       </c>
       <c r="C17">
-        <v>0.1797516553887704</v>
+        <v>0.0656639691974874</v>
       </c>
       <c r="D17">
-        <v>0.08040384070774564</v>
+        <v>0.1566402252239634</v>
       </c>
       <c r="E17">
-        <v>0.03131617164032185</v>
+        <v>0.06993211570711999</v>
       </c>
       <c r="F17">
-        <v>2.461528859669215</v>
+        <v>2.717897792047225</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.053414800838311</v>
+        <v>1.082952005911636</v>
       </c>
       <c r="L17">
-        <v>0.1952239659734829</v>
+        <v>0.205393962020409</v>
       </c>
       <c r="M17">
-        <v>0.4219389251484458</v>
+        <v>0.3247534821262477</v>
       </c>
       <c r="N17">
-        <v>2.376188856796006</v>
+        <v>3.741794017593818</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.200795721439931</v>
+        <v>1.525071918107642</v>
       </c>
       <c r="C18">
-        <v>0.1753817736138501</v>
+        <v>0.06441282201710408</v>
       </c>
       <c r="D18">
-        <v>0.08098959169112607</v>
+        <v>0.1567306100859582</v>
       </c>
       <c r="E18">
-        <v>0.03114805785161678</v>
+        <v>0.06994466628777829</v>
       </c>
       <c r="F18">
-        <v>2.422757744977062</v>
+        <v>2.710015489341146</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.000470984550873</v>
+        <v>1.070524368944064</v>
       </c>
       <c r="L18">
-        <v>0.1912010708764598</v>
+        <v>0.2046229964757202</v>
       </c>
       <c r="M18">
-        <v>0.4119570989006078</v>
+        <v>0.3226064822985393</v>
       </c>
       <c r="N18">
-        <v>2.371782541533065</v>
+        <v>3.741278384042715</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.182143670181972</v>
+        <v>1.520927219525731</v>
       </c>
       <c r="C19">
-        <v>0.1739060560067287</v>
+        <v>0.06398887165359213</v>
       </c>
       <c r="D19">
-        <v>0.0811880565670009</v>
+        <v>0.1567612713068121</v>
       </c>
       <c r="E19">
-        <v>0.03109170933288929</v>
+        <v>0.06994920350929057</v>
       </c>
       <c r="F19">
-        <v>2.409709380544342</v>
+        <v>2.707365099557421</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.982604195449028</v>
+        <v>1.066326775262553</v>
       </c>
       <c r="L19">
-        <v>0.1898447235998901</v>
+        <v>0.2043636088725123</v>
       </c>
       <c r="M19">
-        <v>0.4085897875369042</v>
+        <v>0.321882459794935</v>
       </c>
       <c r="N19">
-        <v>2.370340336410692</v>
+        <v>3.741116929230174</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.266340648478945</v>
+        <v>1.539635133361742</v>
       </c>
       <c r="C20">
-        <v>0.180562301472051</v>
+        <v>0.0658953706361558</v>
       </c>
       <c r="D20">
-        <v>0.08029549643531908</v>
+        <v>0.1566235247848002</v>
       </c>
       <c r="E20">
-        <v>0.03134755999588634</v>
+        <v>0.06992992952809551</v>
       </c>
       <c r="F20">
-        <v>2.468742581331966</v>
+        <v>2.71936538207143</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.063242143372975</v>
+        <v>1.085256924740662</v>
       </c>
       <c r="L20">
-        <v>0.1959712831533551</v>
+        <v>0.2055374332065867</v>
       </c>
       <c r="M20">
-        <v>0.4237923173840628</v>
+        <v>0.3251522281363037</v>
       </c>
       <c r="N20">
-        <v>2.377028260781671</v>
+        <v>3.7418956881219</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.554151361648792</v>
+        <v>1.60347697748125</v>
       </c>
       <c r="C21">
-        <v>0.2032259034574793</v>
+        <v>0.07227809872792079</v>
       </c>
       <c r="D21">
-        <v>0.07730557139813055</v>
+        <v>0.1561647820382284</v>
       </c>
       <c r="E21">
-        <v>0.03224859532917712</v>
+        <v>0.06988515821155872</v>
       </c>
       <c r="F21">
-        <v>2.672945316084963</v>
+        <v>2.760967546818847</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.338640238160878</v>
+        <v>1.149569630163967</v>
       </c>
       <c r="L21">
-        <v>0.2169828620549055</v>
+        <v>0.2095959363886664</v>
       </c>
       <c r="M21">
-        <v>0.4757980931503525</v>
+        <v>0.3363410028263445</v>
       </c>
       <c r="N21">
-        <v>2.403135936522261</v>
+        <v>3.745426583808268</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.746380977991521</v>
+        <v>1.645936567904187</v>
       </c>
       <c r="C22">
-        <v>0.2183010179423661</v>
+        <v>0.07643296182878601</v>
       </c>
       <c r="D22">
-        <v>0.07535726354017047</v>
+        <v>0.1558679984995237</v>
       </c>
       <c r="E22">
-        <v>0.03287036778858266</v>
+        <v>0.06987075313221425</v>
       </c>
       <c r="F22">
-        <v>2.811237043163146</v>
+        <v>2.78911465389325</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.522402566191289</v>
+        <v>1.192132167361194</v>
       </c>
       <c r="L22">
-        <v>0.2310686969135816</v>
+        <v>0.2123337879644396</v>
       </c>
       <c r="M22">
-        <v>0.5105621767677704</v>
+        <v>0.3438047122480157</v>
       </c>
       <c r="N22">
-        <v>2.423135155122736</v>
+        <v>3.748416909460786</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.643375427108822</v>
+        <v>1.623207775367746</v>
       </c>
       <c r="C23">
-        <v>0.2102283591087541</v>
+        <v>0.0742169274207356</v>
       </c>
       <c r="D23">
-        <v>0.07639664033110449</v>
+        <v>0.1560261200393542</v>
       </c>
       <c r="E23">
-        <v>0.0325353694310575</v>
+        <v>0.06987708471126197</v>
       </c>
       <c r="F23">
-        <v>2.736954321682248</v>
+        <v>2.774004283645354</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.423949705857666</v>
+        <v>1.16936711812923</v>
       </c>
       <c r="L23">
-        <v>0.2235160953607505</v>
+        <v>0.2108647346637156</v>
       </c>
       <c r="M23">
-        <v>0.491931301911066</v>
+        <v>0.3398073520782887</v>
       </c>
       <c r="N23">
-        <v>2.412177241781819</v>
+        <v>3.746758374091314</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.261699556393012</v>
+        <v>1.538604076693332</v>
       </c>
       <c r="C24">
-        <v>0.1801957414024855</v>
+        <v>0.06579076181627386</v>
       </c>
       <c r="D24">
-        <v>0.08034447560655433</v>
+        <v>0.1566310738647845</v>
       </c>
       <c r="E24">
-        <v>0.03133335901733858</v>
+        <v>0.06993091266840068</v>
       </c>
       <c r="F24">
-        <v>2.465479843256261</v>
+        <v>2.718701561623448</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.058798167823795</v>
+        <v>1.084214703604403</v>
       </c>
       <c r="L24">
-        <v>0.1956333197647666</v>
+        <v>0.2054725410985299</v>
       </c>
       <c r="M24">
-        <v>0.4229541815757969</v>
+        <v>0.3249719052499245</v>
       </c>
       <c r="N24">
-        <v>2.376647852526474</v>
+        <v>3.741849485464172</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.864842190618049</v>
+        <v>1.450498390351584</v>
       </c>
       <c r="C25">
-        <v>0.1486817671319898</v>
+        <v>0.05662774336107645</v>
       </c>
       <c r="D25">
-        <v>0.08463348112900881</v>
+        <v>0.157296631002211</v>
       </c>
       <c r="E25">
-        <v>0.03016532237974801</v>
+        <v>0.07005301959852339</v>
       </c>
       <c r="F25">
-        <v>2.190488216371392</v>
+        <v>2.663150046952751</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.678342163129457</v>
+        <v>0.9946328228310506</v>
       </c>
       <c r="L25">
-        <v>0.1668551563325451</v>
+        <v>0.2000230065991246</v>
       </c>
       <c r="M25">
-        <v>0.3513539017126703</v>
+        <v>0.3096182602906197</v>
       </c>
       <c r="N25">
-        <v>2.34952304906767</v>
+        <v>3.73947775321426</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_74/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_74/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.388317276603885</v>
+        <v>1.582515631607464</v>
       </c>
       <c r="C2">
-        <v>0.04981286588697742</v>
+        <v>0.1259899154502051</v>
       </c>
       <c r="D2">
-        <v>0.1577979911730818</v>
+        <v>0.08782492186137159</v>
       </c>
       <c r="E2">
-        <v>0.07019828564043351</v>
+        <v>0.02940312630288844</v>
       </c>
       <c r="F2">
-        <v>2.625751773257264</v>
+        <v>2.000460133616187</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9305988667144902</v>
+        <v>1.406973942409365</v>
       </c>
       <c r="L2">
-        <v>0.1963251175074916</v>
+        <v>0.1465615171930565</v>
       </c>
       <c r="M2">
-        <v>0.298867986704245</v>
+        <v>0.3005186090016707</v>
       </c>
       <c r="N2">
-        <v>3.740235092271789</v>
+        <v>2.337806545705661</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.347845959518565</v>
+        <v>1.396077795426777</v>
       </c>
       <c r="C3">
-        <v>0.04514965112339553</v>
+        <v>0.1108239979911332</v>
       </c>
       <c r="D3">
-        <v>0.1581448829324259</v>
+        <v>0.09001218557864021</v>
       </c>
       <c r="E3">
-        <v>0.07033141536888365</v>
+        <v>0.02894200582762352</v>
       </c>
       <c r="F3">
-        <v>2.602581907047337</v>
+        <v>1.87817460994323</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8883912467549351</v>
+        <v>1.227313380911994</v>
       </c>
       <c r="L3">
-        <v>0.1940149243992977</v>
+        <v>0.1332700618514053</v>
       </c>
       <c r="M3">
-        <v>0.2919269069122592</v>
+        <v>0.2670112108059932</v>
       </c>
       <c r="N3">
-        <v>3.7423052222113</v>
+        <v>2.334415887129452</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.323817732214849</v>
+        <v>1.283645903019931</v>
       </c>
       <c r="C4">
-        <v>0.04226370416380121</v>
+        <v>0.1015855756585324</v>
       </c>
       <c r="D4">
-        <v>0.1583614021338491</v>
+        <v>0.09136833851572224</v>
       </c>
       <c r="E4">
-        <v>0.07043031795491217</v>
+        <v>0.02868455369099365</v>
       </c>
       <c r="F4">
-        <v>2.589425679108842</v>
+        <v>1.805921262989926</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8630588559736907</v>
+        <v>1.118737071603476</v>
       </c>
       <c r="L4">
-        <v>0.1926930427625635</v>
+        <v>0.1253080548597296</v>
       </c>
       <c r="M4">
-        <v>0.2878346556715989</v>
+        <v>0.246834888161672</v>
       </c>
       <c r="N4">
-        <v>3.744342814676344</v>
+        <v>2.334400764959028</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.314232525788867</v>
+        <v>1.238291573576163</v>
       </c>
       <c r="C5">
-        <v>0.04108186791624746</v>
+        <v>0.09783508300343158</v>
       </c>
       <c r="D5">
-        <v>0.1584505233941647</v>
+        <v>0.09192444994555515</v>
       </c>
       <c r="E5">
-        <v>0.07047494563243806</v>
+        <v>0.02858587006134083</v>
       </c>
       <c r="F5">
-        <v>2.584333303512111</v>
+        <v>1.777138025889357</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.852882165177931</v>
+        <v>1.074879054398764</v>
       </c>
       <c r="L5">
-        <v>0.1921786667685197</v>
+        <v>0.1221095981208578</v>
       </c>
       <c r="M5">
-        <v>0.2862096803863317</v>
+        <v>0.2387034988223853</v>
       </c>
       <c r="N5">
-        <v>3.745365747169942</v>
+        <v>2.334889957990086</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.312653380257615</v>
+        <v>1.230787039611442</v>
       </c>
       <c r="C6">
-        <v>0.0408852729739948</v>
+        <v>0.09721305821827286</v>
       </c>
       <c r="D6">
-        <v>0.1584653755781034</v>
+        <v>0.09201700587050787</v>
       </c>
       <c r="E6">
-        <v>0.07048261745194839</v>
+        <v>0.0285698536653074</v>
       </c>
       <c r="F6">
-        <v>2.583503953079287</v>
+        <v>1.772397059172121</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8512011738118019</v>
+        <v>1.067618516446515</v>
       </c>
       <c r="L6">
-        <v>0.1920947232103245</v>
+        <v>0.1215811731585532</v>
       </c>
       <c r="M6">
-        <v>0.2859424305853224</v>
+        <v>0.2373585015538175</v>
       </c>
       <c r="N6">
-        <v>3.745547232352379</v>
+        <v>2.335000426599763</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.323687626740792</v>
+        <v>1.283032430381496</v>
       </c>
       <c r="C7">
-        <v>0.04224778905032167</v>
+        <v>0.1015349429393524</v>
       </c>
       <c r="D7">
-        <v>0.1583626004583856</v>
+        <v>0.09137582417932588</v>
       </c>
       <c r="E7">
-        <v>0.07043090229925397</v>
+        <v>0.02868319787176432</v>
       </c>
       <c r="F7">
-        <v>2.589355913093144</v>
+        <v>1.805530472578951</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8629210167962924</v>
+        <v>1.118144079334712</v>
       </c>
       <c r="L7">
-        <v>0.1926860072924796</v>
+        <v>0.1252647375774387</v>
       </c>
       <c r="M7">
-        <v>0.2878125679921411</v>
+        <v>0.2467248702884355</v>
       </c>
       <c r="N7">
-        <v>3.744355830705871</v>
+        <v>2.334405387648687</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.37419225928474</v>
+        <v>1.517776379579942</v>
       </c>
       <c r="C8">
-        <v>0.04820965574594993</v>
+        <v>0.1207427930091427</v>
       </c>
       <c r="D8">
-        <v>0.1579168683519878</v>
+        <v>0.08857645416514348</v>
       </c>
       <c r="E8">
-        <v>0.07024063242690026</v>
+        <v>0.02923866118736385</v>
       </c>
       <c r="F8">
-        <v>2.617540552107741</v>
+        <v>1.957676695409646</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9159244858467162</v>
+        <v>1.344636180498867</v>
       </c>
       <c r="L8">
-        <v>0.1955085235183063</v>
+        <v>0.1419348785845003</v>
       </c>
       <c r="M8">
-        <v>0.2964395004088871</v>
+        <v>0.2888769860894413</v>
       </c>
       <c r="N8">
-        <v>3.740789685325097</v>
+        <v>2.336193291325472</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.479757675600808</v>
+        <v>1.99680939805944</v>
       </c>
       <c r="C9">
-        <v>0.05972461984394783</v>
+        <v>0.1592025069176657</v>
       </c>
       <c r="D9">
-        <v>0.1570706872282477</v>
+        <v>0.08318399659770659</v>
       </c>
       <c r="E9">
-        <v>0.0700033073951456</v>
+        <v>0.03054278464770555</v>
       </c>
       <c r="F9">
-        <v>2.681316881054997</v>
+        <v>2.28100526265564</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.024507976927111</v>
+        <v>1.804964938014848</v>
       </c>
       <c r="L9">
-        <v>0.2018097738820828</v>
+        <v>0.1763961917126693</v>
       </c>
       <c r="M9">
-        <v>0.3147038105791324</v>
+        <v>0.3751470244809525</v>
       </c>
       <c r="N9">
-        <v>3.739887086963947</v>
+        <v>2.357291830173693</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.56131840834729</v>
+        <v>2.363979851060435</v>
       </c>
       <c r="C10">
-        <v>0.06808343973087005</v>
+        <v>0.1882653075664678</v>
       </c>
       <c r="D10">
-        <v>0.1564658558218222</v>
+        <v>0.07927086259116933</v>
       </c>
       <c r="E10">
-        <v>0.06991127517287055</v>
+        <v>0.03164885059187661</v>
       </c>
       <c r="F10">
-        <v>2.733388172271361</v>
+        <v>2.537612540457758</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.1071473135205</v>
+        <v>2.156710604323365</v>
       </c>
       <c r="L10">
-        <v>0.2069072007137578</v>
+        <v>0.2030879641590104</v>
       </c>
       <c r="M10">
-        <v>0.3289473801535863</v>
+        <v>0.4414287278036042</v>
       </c>
       <c r="N10">
-        <v>3.742951321020215</v>
+        <v>2.385339288966662</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.599297271945886</v>
+        <v>2.53527096065659</v>
       </c>
       <c r="C11">
-        <v>0.07186548398262005</v>
+        <v>0.2017428612185483</v>
       </c>
       <c r="D11">
-        <v>0.1561943312605463</v>
+        <v>0.07749895892644609</v>
       </c>
       <c r="E11">
-        <v>0.06988719263793364</v>
+        <v>0.03218833605267335</v>
       </c>
       <c r="F11">
-        <v>2.758215998717304</v>
+        <v>2.659441630401901</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.145371365710048</v>
+        <v>2.320584503067323</v>
       </c>
       <c r="L11">
-        <v>0.2093279736353679</v>
+        <v>0.2156014935742974</v>
       </c>
       <c r="M11">
-        <v>0.3356071743520346</v>
+        <v>0.4723848205261518</v>
       </c>
       <c r="N11">
-        <v>3.745158021733459</v>
+        <v>2.401277930565982</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.613805177091365</v>
+        <v>2.600835422195701</v>
       </c>
       <c r="C12">
-        <v>0.07329480452794712</v>
+        <v>0.2068909574501703</v>
       </c>
       <c r="D12">
-        <v>0.1560920308510987</v>
+        <v>0.07682898297768936</v>
       </c>
       <c r="E12">
-        <v>0.06988062239082993</v>
+        <v>0.03239823545655618</v>
       </c>
       <c r="F12">
-        <v>2.767782036644519</v>
+        <v>2.706396713088594</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.159936972332588</v>
+        <v>2.383279605704075</v>
       </c>
       <c r="L12">
-        <v>0.2102593172544545</v>
+        <v>0.2204001371756164</v>
       </c>
       <c r="M12">
-        <v>0.3381550330237459</v>
+        <v>0.4842387599607534</v>
       </c>
       <c r="N12">
-        <v>3.746110755368363</v>
+        <v>2.407813346442566</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.610675028672574</v>
+        <v>2.586682314200345</v>
       </c>
       <c r="C13">
-        <v>0.07298710059343705</v>
+        <v>0.2057801176143244</v>
       </c>
       <c r="D13">
-        <v>0.1561140399431791</v>
+        <v>0.07697323232530895</v>
       </c>
       <c r="E13">
-        <v>0.06988192415656869</v>
+        <v>0.03235277393096858</v>
       </c>
       <c r="F13">
-        <v>2.765714508011769</v>
+        <v>2.696246077975644</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.156795957580499</v>
+        <v>2.369747212499277</v>
       </c>
       <c r="L13">
-        <v>0.2100580843192006</v>
+        <v>0.2193638799671902</v>
       </c>
       <c r="M13">
-        <v>0.3376051522638548</v>
+        <v>0.4816796811081687</v>
       </c>
       <c r="N13">
-        <v>3.745900355197108</v>
+        <v>2.406382872487342</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.600488317540396</v>
+        <v>2.540650423150169</v>
       </c>
       <c r="C14">
-        <v>0.07198313185689642</v>
+        <v>0.2021654615031423</v>
       </c>
       <c r="D14">
-        <v>0.156185904521787</v>
+        <v>0.07744382044308651</v>
       </c>
       <c r="E14">
-        <v>0.06988660105349709</v>
+        <v>0.03220548987777505</v>
       </c>
       <c r="F14">
-        <v>2.758999708277514</v>
+        <v>2.663287660886994</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.146567861948768</v>
+        <v>2.32572913485518</v>
       </c>
       <c r="L14">
-        <v>0.2094043022797081</v>
+        <v>0.2159950370714796</v>
       </c>
       <c r="M14">
-        <v>0.3358162683029917</v>
+        <v>0.4733573181462916</v>
       </c>
       <c r="N14">
-        <v>3.745234055436697</v>
+        <v>2.401805326469258</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.594265092195258</v>
+        <v>2.512548492437247</v>
       </c>
       <c r="C15">
-        <v>0.07136780224887218</v>
+        <v>0.1999574049875577</v>
       </c>
       <c r="D15">
-        <v>0.1562299913804948</v>
+        <v>0.07773219505350415</v>
       </c>
       <c r="E15">
-        <v>0.06988979754599711</v>
+        <v>0.03211601649846685</v>
       </c>
       <c r="F15">
-        <v>2.754908102541776</v>
+        <v>2.643209374432445</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.140314714856657</v>
+        <v>2.298852734116679</v>
       </c>
       <c r="L15">
-        <v>0.2090057494784361</v>
+        <v>0.2139395514491014</v>
       </c>
       <c r="M15">
-        <v>0.3347239035558758</v>
+        <v>0.468277260317997</v>
       </c>
       <c r="N15">
-        <v>3.744841184867681</v>
+        <v>2.399067876256254</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.55885404540652</v>
+        <v>2.352878614948509</v>
       </c>
       <c r="C16">
-        <v>0.06783587003405955</v>
+        <v>0.1873903082305901</v>
       </c>
       <c r="D16">
-        <v>0.1564836733584025</v>
+        <v>0.07938681082196908</v>
       </c>
       <c r="E16">
-        <v>0.06991320618941721</v>
+        <v>0.03161435696338266</v>
       </c>
       <c r="F16">
-        <v>2.731788587368897</v>
+        <v>2.529760615758121</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.104662000445103</v>
+        <v>2.146085787917855</v>
       </c>
       <c r="L16">
-        <v>0.2067510478909185</v>
+        <v>0.202278200557501</v>
       </c>
       <c r="M16">
-        <v>0.3285157762293807</v>
+        <v>0.439423179409907</v>
       </c>
       <c r="N16">
-        <v>3.742823482351554</v>
+        <v>2.38436518211671</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.537355068878753</v>
+        <v>2.256077554271428</v>
       </c>
       <c r="C17">
-        <v>0.0656639691974874</v>
+        <v>0.1797516553887704</v>
       </c>
       <c r="D17">
-        <v>0.1566402252239634</v>
+        <v>0.08040384070763729</v>
       </c>
       <c r="E17">
-        <v>0.06993211570711999</v>
+        <v>0.03131617164027212</v>
       </c>
       <c r="F17">
-        <v>2.717897792047225</v>
+        <v>2.461528859669244</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.082952005911636</v>
+        <v>2.053414800838254</v>
       </c>
       <c r="L17">
-        <v>0.205393962020409</v>
+        <v>0.1952239659733976</v>
       </c>
       <c r="M17">
-        <v>0.3247534821262477</v>
+        <v>0.4219389251484316</v>
       </c>
       <c r="N17">
-        <v>3.741794017593818</v>
+        <v>2.376188856796048</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.525071918107642</v>
+        <v>2.200795721439874</v>
       </c>
       <c r="C18">
-        <v>0.06441282201710408</v>
+        <v>0.1753817736138217</v>
       </c>
       <c r="D18">
-        <v>0.1567306100859582</v>
+        <v>0.08098959169100262</v>
       </c>
       <c r="E18">
-        <v>0.06994466628777829</v>
+        <v>0.03114805785161145</v>
       </c>
       <c r="F18">
-        <v>2.710015489341146</v>
+        <v>2.422757744977048</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.070524368944064</v>
+        <v>2.00047098455093</v>
       </c>
       <c r="L18">
-        <v>0.2046229964757202</v>
+        <v>0.1912010708765024</v>
       </c>
       <c r="M18">
-        <v>0.3226064822985393</v>
+        <v>0.4119570989005936</v>
       </c>
       <c r="N18">
-        <v>3.741278384042715</v>
+        <v>2.371782541533037</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.520927219525731</v>
+        <v>2.182143670182029</v>
       </c>
       <c r="C19">
-        <v>0.06398887165359213</v>
+        <v>0.173906056007155</v>
       </c>
       <c r="D19">
-        <v>0.1567612713068121</v>
+        <v>0.08118805656711192</v>
       </c>
       <c r="E19">
-        <v>0.06994920350929057</v>
+        <v>0.03109170933288929</v>
       </c>
       <c r="F19">
-        <v>2.707365099557421</v>
+        <v>2.409709380544342</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.066326775262553</v>
+        <v>1.982604195449028</v>
       </c>
       <c r="L19">
-        <v>0.2043636088725123</v>
+        <v>0.189844723599947</v>
       </c>
       <c r="M19">
-        <v>0.321882459794935</v>
+        <v>0.4085897875369184</v>
       </c>
       <c r="N19">
-        <v>3.741116929230174</v>
+        <v>2.370340336410678</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.539635133361742</v>
+        <v>2.266340648479172</v>
       </c>
       <c r="C20">
-        <v>0.0658953706361558</v>
+        <v>0.1805623014722357</v>
       </c>
       <c r="D20">
-        <v>0.1566235247848002</v>
+        <v>0.08029549643544964</v>
       </c>
       <c r="E20">
-        <v>0.06992992952809551</v>
+        <v>0.03134755999591654</v>
       </c>
       <c r="F20">
-        <v>2.71936538207143</v>
+        <v>2.468742581331966</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.085256924740662</v>
+        <v>2.063242143372918</v>
       </c>
       <c r="L20">
-        <v>0.2055374332065867</v>
+        <v>0.1959712831533835</v>
       </c>
       <c r="M20">
-        <v>0.3251522281363037</v>
+        <v>0.4237923173840628</v>
       </c>
       <c r="N20">
-        <v>3.7418956881219</v>
+        <v>2.377028260781714</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.60347697748125</v>
+        <v>2.554151361648678</v>
       </c>
       <c r="C21">
-        <v>0.07227809872792079</v>
+        <v>0.2032259034574793</v>
       </c>
       <c r="D21">
-        <v>0.1561647820382284</v>
+        <v>0.07730557139789518</v>
       </c>
       <c r="E21">
-        <v>0.06988515821155872</v>
+        <v>0.0322485953291789</v>
       </c>
       <c r="F21">
-        <v>2.760967546818847</v>
+        <v>2.672945316084991</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.149569630163967</v>
+        <v>2.338640238160878</v>
       </c>
       <c r="L21">
-        <v>0.2095959363886664</v>
+        <v>0.2169828620550334</v>
       </c>
       <c r="M21">
-        <v>0.3363410028263445</v>
+        <v>0.4757980931503667</v>
       </c>
       <c r="N21">
-        <v>3.745426583808268</v>
+        <v>2.403135936522233</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.645936567904187</v>
+        <v>2.746380977991578</v>
       </c>
       <c r="C22">
-        <v>0.07643296182878601</v>
+        <v>0.2183010179425935</v>
       </c>
       <c r="D22">
-        <v>0.1558679984995237</v>
+        <v>0.07535726354028149</v>
       </c>
       <c r="E22">
-        <v>0.06987075313221425</v>
+        <v>0.03287036778855068</v>
       </c>
       <c r="F22">
-        <v>2.78911465389325</v>
+        <v>2.811237043163118</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.192132167361194</v>
+        <v>2.522402566191403</v>
       </c>
       <c r="L22">
-        <v>0.2123337879644396</v>
+        <v>0.2310686969136242</v>
       </c>
       <c r="M22">
-        <v>0.3438047122480157</v>
+        <v>0.5105621767677704</v>
       </c>
       <c r="N22">
-        <v>3.748416909460786</v>
+        <v>2.423135155122736</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.623207775367746</v>
+        <v>2.643375427108879</v>
       </c>
       <c r="C23">
-        <v>0.0742169274207356</v>
+        <v>0.2102283591087541</v>
       </c>
       <c r="D23">
-        <v>0.1560261200393542</v>
+        <v>0.07639664033123239</v>
       </c>
       <c r="E23">
-        <v>0.06987708471126197</v>
+        <v>0.03253536943105928</v>
       </c>
       <c r="F23">
-        <v>2.774004283645354</v>
+        <v>2.736954321682248</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.16936711812923</v>
+        <v>2.423949705857638</v>
       </c>
       <c r="L23">
-        <v>0.2108647346637156</v>
+        <v>0.2235160953606936</v>
       </c>
       <c r="M23">
-        <v>0.3398073520782887</v>
+        <v>0.4919313019110731</v>
       </c>
       <c r="N23">
-        <v>3.746758374091314</v>
+        <v>2.412177241781848</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.538604076693332</v>
+        <v>2.261699556393239</v>
       </c>
       <c r="C24">
-        <v>0.06579076181627386</v>
+        <v>0.1801957414027271</v>
       </c>
       <c r="D24">
-        <v>0.1566310738647845</v>
+        <v>0.08034447560668667</v>
       </c>
       <c r="E24">
-        <v>0.06993091266840068</v>
+        <v>0.03133335901737055</v>
       </c>
       <c r="F24">
-        <v>2.718701561623448</v>
+        <v>2.465479843256261</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.084214703604403</v>
+        <v>2.058798167823767</v>
       </c>
       <c r="L24">
-        <v>0.2054725410985299</v>
+        <v>0.1956333197647098</v>
       </c>
       <c r="M24">
-        <v>0.3249719052499245</v>
+        <v>0.422954181575804</v>
       </c>
       <c r="N24">
-        <v>3.741849485464172</v>
+        <v>2.37664785252646</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.450498390351584</v>
+        <v>1.864842190617992</v>
       </c>
       <c r="C25">
-        <v>0.05662774336107645</v>
+        <v>0.1486817671322029</v>
       </c>
       <c r="D25">
-        <v>0.157296631002211</v>
+        <v>0.08463348112911895</v>
       </c>
       <c r="E25">
-        <v>0.07005301959852339</v>
+        <v>0.03016532237973202</v>
       </c>
       <c r="F25">
-        <v>2.663150046952751</v>
+        <v>2.190488216371392</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9946328228310506</v>
+        <v>1.678342163129486</v>
       </c>
       <c r="L25">
-        <v>0.2000230065991246</v>
+        <v>0.166855156332538</v>
       </c>
       <c r="M25">
-        <v>0.3096182602906197</v>
+        <v>0.3513539017126703</v>
       </c>
       <c r="N25">
-        <v>3.73947775321426</v>
+        <v>2.34952304906767</v>
       </c>
       <c r="O25">
         <v>0</v>
